--- a/TP2/Ejercicio 1(Germo)/MedicionesV2.xlsx
+++ b/TP2/Ejercicio 1(Germo)/MedicionesV2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guido\Documents\GitHub\LABO\TP2\Ejercicio 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\Documents\GitHub\LABO\TP2\Ejercicio 1(Germo)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4D90A3-5C6D-483B-9ED8-8889BA594E07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278D592F-965B-44A7-BD26-D6867361C938}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D8D5A0-A79E-477C-9145-654BD95F2316}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4D8D5A0-A79E-477C-9145-654BD95F2316}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -772,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE68E500-C3E3-4194-893F-47662D0E18A3}">
   <dimension ref="B1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>

--- a/TP2/Ejercicio 1(Germo)/MedicionesV2.xlsx
+++ b/TP2/Ejercicio 1(Germo)/MedicionesV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\Documents\GitHub\LABO\TP2\Ejercicio 1(Germo)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278D592F-965B-44A7-BD26-D6867361C938}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD263305-1D1D-4AE6-9293-AF75B66D8705}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4D8D5A0-A79E-477C-9145-654BD95F2316}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
   <si>
     <t>Ls</t>
   </si>
@@ -115,9 +114,6 @@
     <t>z</t>
   </si>
   <si>
-    <t>0.49m</t>
-  </si>
-  <si>
     <t>0.48m</t>
   </si>
   <si>
@@ -197,9 +193,6 @@
   </si>
   <si>
     <t>2.2n</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Rp  [Siemens]</t>
@@ -774,7 +767,7 @@
   <dimension ref="B1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +777,7 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
@@ -816,10 +809,10 @@
         <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
         <v>4</v>
@@ -829,8 +822,8 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
+      <c r="C3">
+        <v>0.49</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -848,19 +841,19 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="N3">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -868,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -886,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K4">
         <v>0.01</v>
@@ -895,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>89.9</v>
@@ -924,16 +917,16 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K5">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>89.8</v>
@@ -962,16 +955,16 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K6">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="L6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>89.6</v>
@@ -1000,16 +993,16 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K7">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N7">
         <v>89.56</v>
@@ -1038,16 +1031,16 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K8">
         <v>0.01</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>89.42</v>
@@ -1076,16 +1069,16 @@
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K9">
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" t="s">
         <v>72</v>
-      </c>
-      <c r="M9" t="s">
-        <v>74</v>
       </c>
       <c r="N9">
         <v>89.35</v>
@@ -1114,16 +1107,16 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K10">
         <v>1.26E-2</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N10">
         <v>89.28</v>
@@ -1152,16 +1145,16 @@
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K11">
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N11">
         <v>89.22</v>
@@ -1190,16 +1183,16 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K12">
         <v>1.38E-2</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N12">
         <v>89.21</v>
@@ -1228,16 +1221,16 @@
         <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K13">
         <v>1.52E-2</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>89.3</v>
@@ -1266,16 +1259,16 @@
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K14">
         <v>1.61E-2</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N14">
         <v>89.08</v>
@@ -1283,7 +1276,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>0.55600000000000005</v>
@@ -1301,19 +1294,19 @@
         <v>74.05</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K15">
         <v>1.6199999999999999E-2</v>
       </c>
       <c r="L15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>89.07</v>
@@ -1321,7 +1314,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>0.58899999999999997</v>
@@ -1339,19 +1332,19 @@
         <v>71.16</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K16">
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N16">
         <v>89.06</v>
@@ -1359,7 +1352,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>0.627</v>
@@ -1377,19 +1370,19 @@
         <v>67.599999999999994</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K17">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="L17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N17">
         <v>89.06</v>
@@ -1415,12 +1408,27 @@
         <v>63.06</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18">
+        <v>89.04</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>0.70799999999999996</v>
@@ -1438,27 +1446,27 @@
         <v>57.1</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19">
-        <v>1.6799999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="L19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N19">
-        <v>89.04</v>
+        <v>89.03</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>0.72430000000000005</v>
@@ -1476,12 +1484,27 @@
         <v>49.05</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20">
+        <v>89.02</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>0.71099999999999997</v>
@@ -1499,12 +1522,27 @@
         <v>43.99</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21">
+        <v>89.01</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>0.67130000000000001</v>
@@ -1522,27 +1560,27 @@
         <v>37.96</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
         <v>101</v>
       </c>
       <c r="K22">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="L22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N22">
-        <v>89.03</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>0.59489999999999998</v>
@@ -1560,12 +1598,27 @@
         <v>30.99</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" t="s">
+        <v>111</v>
+      </c>
+      <c r="N23">
+        <v>88.97</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>0.4718</v>
@@ -1583,27 +1636,27 @@
         <v>22.93</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K24">
-        <v>1.7000000000000001E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="L24" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M24" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="N24">
-        <v>89.02</v>
+        <v>88.9</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>0.30120000000000002</v>
@@ -1621,12 +1674,27 @@
         <v>13.96</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" t="s">
+        <v>116</v>
+      </c>
+      <c r="N25">
+        <v>88.68</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>9.4E-2</v>
@@ -1644,12 +1712,27 @@
         <v>4.38</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26">
+        <v>88.16</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>5.2699999999999997E-2</v>
@@ -1667,12 +1750,27 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M27">
+        <v>0.1308</v>
+      </c>
+      <c r="N27">
+        <v>87.7</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>-0.1</v>
@@ -1690,12 +1788,27 @@
         <v>-0.46</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>117</v>
+      </c>
+      <c r="J28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28">
+        <v>0.05</v>
+      </c>
+      <c r="L28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M28">
+        <v>0.182</v>
+      </c>
+      <c r="N28">
+        <v>87.1</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>-0.71899999999999997</v>
@@ -1713,12 +1826,27 @@
         <v>-3.4</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>118</v>
+      </c>
+      <c r="J29" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L29">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M29">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="N29">
+        <v>86.7</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>-0.1114</v>
@@ -1736,12 +1864,27 @@
         <v>-5.28</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>119</v>
+      </c>
+      <c r="J30" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M30">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="N30">
+        <v>86.3</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>-0.2898</v>
@@ -1758,28 +1901,10 @@
       <c r="G31">
         <v>-14.43</v>
       </c>
-      <c r="I31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J31" t="s">
-        <v>103</v>
-      </c>
-      <c r="K31">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="L31" t="s">
-        <v>107</v>
-      </c>
-      <c r="M31" t="s">
-        <v>108</v>
-      </c>
-      <c r="N31">
-        <v>89.01</v>
-      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>-0.4204</v>
@@ -1796,13 +1921,10 @@
       <c r="G32">
         <v>-22.89</v>
       </c>
-      <c r="I32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>-0.5</v>
@@ -1819,11 +1941,8 @@
       <c r="G33">
         <v>-30.3</v>
       </c>
-      <c r="I33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>21</v>
       </c>
@@ -1842,28 +1961,10 @@
       <c r="G34">
         <v>-42.08</v>
       </c>
-      <c r="I34" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" t="s">
-        <v>103</v>
-      </c>
-      <c r="K34">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="L34" t="s">
-        <v>109</v>
-      </c>
-      <c r="M34" t="s">
-        <v>110</v>
-      </c>
-      <c r="N34">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>-0.46970000000000001</v>
@@ -1880,13 +1981,10 @@
       <c r="G35">
         <v>-56.67</v>
       </c>
-      <c r="I35" t="s">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>49</v>
       </c>
       <c r="C36">
         <v>-0.36820000000000003</v>
@@ -1903,26 +2001,8 @@
       <c r="G36">
         <v>-64.8</v>
       </c>
-      <c r="I36" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="L36" t="s">
-        <v>112</v>
-      </c>
-      <c r="M36" t="s">
-        <v>113</v>
-      </c>
-      <c r="N36">
-        <v>88.97</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1.3</v>
       </c>
@@ -1941,13 +2021,10 @@
       <c r="G37">
         <v>-69.819999999999993</v>
       </c>
-      <c r="I37">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>-0.2349</v>
@@ -1964,13 +2041,10 @@
       <c r="G38">
         <v>-73.180000000000007</v>
       </c>
-      <c r="I38" t="s">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>51</v>
       </c>
       <c r="C39">
         <v>-9.2799999999999994E-2</v>
@@ -1987,31 +2061,13 @@
       <c r="G39">
         <v>-81.5</v>
       </c>
-      <c r="I39" t="s">
-        <v>51</v>
-      </c>
-      <c r="J39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K39">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="L39" t="s">
-        <v>114</v>
-      </c>
-      <c r="M39" t="s">
-        <v>115</v>
-      </c>
-      <c r="N39">
-        <v>88.9</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="1">
         <v>16.8</v>
@@ -2026,31 +2082,13 @@
         <v>-86.56</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" t="s">
-        <v>116</v>
-      </c>
-      <c r="K40">
-        <v>2.3E-2</v>
-      </c>
-      <c r="L40" t="s">
-        <v>117</v>
-      </c>
-      <c r="M40" t="s">
-        <v>118</v>
-      </c>
-      <c r="N40">
-        <v>88.68</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="1">
         <v>27.3</v>
@@ -2065,133 +2103,43 @@
         <v>-87.87</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" t="s">
-        <v>125</v>
-      </c>
-      <c r="K41">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="L41" t="s">
-        <v>122</v>
-      </c>
-      <c r="M41" t="s">
-        <v>123</v>
-      </c>
-      <c r="N41">
-        <v>88.16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" t="s">
-        <v>124</v>
-      </c>
-      <c r="K42">
-        <v>3.9E-2</v>
-      </c>
-      <c r="L42">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M42">
-        <v>0.1308</v>
-      </c>
-      <c r="N42">
-        <v>87.7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" t="s">
-        <v>119</v>
-      </c>
-      <c r="J43" t="s">
-        <v>126</v>
-      </c>
-      <c r="K43">
-        <v>0.05</v>
-      </c>
-      <c r="L43">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="M43">
-        <v>0.182</v>
-      </c>
-      <c r="N43">
-        <v>87.1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" t="s">
-        <v>120</v>
-      </c>
-      <c r="J44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K44">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="L44">
-        <v>1.2E-2</v>
-      </c>
-      <c r="M44">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="N44">
-        <v>86.7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" t="s">
-        <v>128</v>
-      </c>
-      <c r="K45">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="L45">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M45">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="N45">
-        <v>86.3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2200,5 +2148,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>